--- a/biology/Zoologie/Brachyplatystoma_filamentosum/Brachyplatystoma_filamentosum.xlsx
+++ b/biology/Zoologie/Brachyplatystoma_filamentosum/Brachyplatystoma_filamentosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bagre laulao
-Brachyplatystoma filamentosum, le Bagre laulao[1], Piraíba, Kumakuma, Torche en Guyane française, est une espèce de grands poissons-chats de la famille des Pimelodidae originaires des bassins de l'Amazone et de l'Orénoque et des zones fluviales des Guyanes et du Nord-Est du Brésil[2],[3].
+Brachyplatystoma filamentosum, le Bagre laulao, Piraíba, Kumakuma, Torche en Guyane française, est une espèce de grands poissons-chats de la famille des Pimelodidae originaires des bassins de l'Amazone et de l'Orénoque et des zones fluviales des Guyanes et du Nord-Est du Brésil,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une espèce très répandue que l'on trouve dans les rivières et les estuaires des bassins versants de l'Amazone et de l'Orénoque, des Guyanes et du Nord-Est du Brésil[3]. Il a également été observé en Argentine. Il s'agit d'une espèce démersale, qui nage et se nourrit près du fond, à une profondeur d'environ 7-9 mètres. Il vit dans la zone climatique tropicale, les eaux dans lesquelles il vit ont donc une température comprise entre 24 et 29 °C[2],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce très répandue que l'on trouve dans les rivières et les estuaires des bassins versants de l'Amazone et de l'Orénoque, des Guyanes et du Nord-Est du Brésil. Il a également été observé en Argentine. Il s'agit d'une espèce démersale, qui nage et se nourrit près du fond, à une profondeur d'environ 7-9 mètres. Il vit dans la zone climatique tropicale, les eaux dans lesquelles il vit ont donc une température comprise entre 24 et 29 °C,.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il atteint une longueur de 2,8 m[2]. Le plus grand Piraíba d'Amazonie enregistre 2 - 2,5 m et pèse plus de 150 kg.
-Dorsale sombre à gris clair avec de petites taches sombres sur la nageoire caudale ou le pédoncule. Nageoire dorsale avec des nuances de rose. Nageoire caudale très fourchue. Les juvéniles présentent des marques ou des taches sombres sur le corps[5].
-Il est entièrement piscivore et se nourrit de loricariidés et d'autres poissons de fond[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il atteint une longueur de 2,8 m. Le plus grand Piraíba d'Amazonie enregistre 2 - 2,5 m et pèse plus de 150 kg.
+Dorsale sombre à gris clair avec de petites taches sombres sur la nageoire caudale ou le pédoncule. Nageoire dorsale avec des nuances de rose. Nageoire caudale très fourchue. Les juvéniles présentent des marques ou des taches sombres sur le corps.
+Il est entièrement piscivore et se nourrit de loricariidés et d'autres poissons de fond.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brachyplatystoma filamentosum se trouve à la fois dans les systèmes d'eau douce et d'eau saumâtre. L'espèce est un poisson démersal potamodrome qui habite généralement en profondeur et dans des cours d'eau à fond mou[3]. Les juvéniles et les subadultes, avant de devenir des individus matures, vivent dans les eaux saumâtres à l'embouchure de la rivière, puis se déplacent vers l'intérieur des terres[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brachyplatystoma filamentosum se trouve à la fois dans les systèmes d'eau douce et d'eau saumâtre. L'espèce est un poisson démersal potamodrome qui habite généralement en profondeur et dans des cours d'eau à fond mou. Les juvéniles et les subadultes, avant de devenir des individus matures, vivent dans les eaux saumâtres à l'embouchure de la rivière, puis se déplacent vers l'intérieur des terres.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Importance pour l'Humain</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chair du Piraìba est considérée comme très bonne à manger. Il est donc pêché pour être consommé ou vendu comme aliment. L'espèce est également recherchée par les amateurs de pêche sportive, qui l'attrapent à l'aide de cannes à pêche[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chair du Piraìba est considérée comme très bonne à manger. Il est donc pêché pour être consommé ou vendu comme aliment. L'espèce est également recherchée par les amateurs de pêche sportive, qui l'attrapent à l'aide de cannes à pêche.
 </t>
         </is>
       </c>
@@ -638,11 +658,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Brachyplatystoma filamentosum (Lichtenstein, 1819)[1].
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bagre laulao[1].
-Brachyplatystoma filamentosum a pour synonymes[1] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Brachyplatystoma filamentosum (Lichtenstein, 1819).
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Bagre laulao.
+Brachyplatystoma filamentosum a pour synonymes :
 Brachyplatystoma goeldii Eigenmann &amp; Bean, 1907
 Pimelodes filamentosus Lichtenstein, 1819
 Pimelodus filamentosus Lichtenstein, 1819
